--- a/tabelas_template/DISPLAY XIAOMI.xlsx
+++ b/tabelas_template/DISPLAY XIAOMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB649CA7-0F72-446F-9299-52A9A3D2FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310BB929-6F67-46C4-A447-C90B9FE83B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="189">
   <si>
     <t>DISPLAY XIAOMI</t>
   </si>
@@ -52,9 +52,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 45,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -82,9 +79,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -104,9 +98,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -126,9 +117,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -148,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -170,9 +155,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 40,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -192,9 +174,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -236,9 +215,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -258,9 +234,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -280,9 +253,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -302,9 +272,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -333,9 +300,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 115,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -363,9 +327,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -385,9 +346,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 160,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -407,9 +365,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -437,9 +392,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 235,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -467,9 +419,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -511,9 +460,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -533,9 +479,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -555,9 +498,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -577,9 +517,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -607,9 +544,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -637,9 +571,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -659,9 +590,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -681,9 +609,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -703,9 +628,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -725,12 +647,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 145,00</t>
-  </si>
-  <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -758,9 +674,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 220,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -783,9 +696,6 @@
     <t/>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -805,9 +715,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 255,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -827,9 +734,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -849,9 +753,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -871,9 +772,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 130,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -893,9 +791,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -923,9 +818,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 195,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -953,9 +845,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -975,9 +864,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -997,9 +883,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1019,9 +902,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 220,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1041,9 +921,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1071,9 +948,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 300,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1102,9 +976,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1124,9 +995,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1154,9 +1022,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1176,9 +1041,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 180,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1198,9 +1060,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1228,9 +1087,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 215,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1250,9 +1106,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1272,9 +1125,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1302,9 +1152,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1332,9 +1179,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 180,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1354,12 +1198,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
-    <t>R$ 270,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1379,9 +1217,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1409,9 +1244,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1431,12 +1263,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1456,9 +1282,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 265,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1481,9 +1304,6 @@
     <t/>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1511,9 +1331,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 315,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1533,12 +1350,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
-    <t>R$ 130,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1588,9 +1399,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1610,9 +1418,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1654,9 +1459,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1676,9 +1478,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 255,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1707,9 +1506,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1729,9 +1525,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1759,12 +1552,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1784,9 +1571,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1806,12 +1590,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1840,9 +1618,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1870,9 +1645,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1892,9 +1664,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1922,9 +1691,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1944,9 +1710,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1966,9 +1729,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1996,9 +1756,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2018,9 +1775,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 150,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2040,9 +1794,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 225,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2070,9 +1821,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 165,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2128,12 +1876,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 350,00</t>
-  </si>
-  <si>
-    <t>R$ 185,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2235,9 +1977,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 135,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2385,9 +2124,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 125,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2565,9 +2301,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 240,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2633,9 +2366,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 250,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2804,9 +2534,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 170,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2898,9 +2625,6 @@
       </rPr>
       <t xml:space="preserve"> C/ARO</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 210,00</t>
   </si>
   <si>
     <r>
@@ -3258,9 +2982,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 260,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3536,9 +3257,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 420,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3663,9 +3381,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 390,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3787,9 +3502,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 305,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3937,9 +3649,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 435,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3994,9 +3703,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 605,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4033,9 +3739,6 @@
       <t xml:space="preserve">
 C/ARO</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 200,00</t>
   </si>
   <si>
     <r>
@@ -4902,7 +4605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4918,29 +4621,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4954,29 +4687,14 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5261,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5272,10 +4990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5283,1623 +5001,1623 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="5">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="5">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="5">
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5">
         <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="B24" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="5">
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="B27" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
+      </c>
+      <c r="B28" s="5">
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
+      </c>
+      <c r="B29" s="5">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>112</v>
+      <c r="A31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="18">
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
+      </c>
+      <c r="B33" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="B34" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>65</v>
+      </c>
+      <c r="B36" s="5">
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
+      </c>
+      <c r="B37" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>69</v>
+      </c>
+      <c r="B39" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
+      </c>
+      <c r="B41" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="B42" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>148</v>
+      <c r="A43" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="18">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>153</v>
+      <c r="A45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="18">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
     </row>
     <row r="47" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="A47" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
     </row>
     <row r="50" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>165</v>
+        <v>85</v>
+      </c>
+      <c r="B50" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="5">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B52" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B53" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B55" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B56" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B57" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B58" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B59" s="5">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B60" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="B61" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="B62" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="B63" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="B64" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>60</v>
+      <c r="A65" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="18">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>65</v>
+      <c r="A67" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="18">
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="B69" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="B70" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="B71" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="B72" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="B73" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="B74" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="B75" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
+      </c>
+      <c r="B76" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
+      </c>
+      <c r="B77" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
+      <c r="A78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="5">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
+      </c>
+      <c r="B79" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
+      </c>
+      <c r="B80" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="B81" s="5">
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>119</v>
+      <c r="A82" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="18">
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>124</v>
+      <c r="A84" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="18">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>129</v>
+      <c r="A86" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="18">
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="19"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
+      </c>
+      <c r="B88" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>139</v>
+        <v>73</v>
+      </c>
+      <c r="B89" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>75</v>
+      </c>
+      <c r="B90" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>147</v>
+      <c r="A91" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="5">
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>78</v>
+      </c>
+      <c r="B92" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>152</v>
+        <v>79</v>
+      </c>
+      <c r="B93" s="5">
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>155</v>
+        <v>80</v>
+      </c>
+      <c r="B94" s="5">
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>157</v>
+      <c r="A95" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="5">
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>159</v>
+        <v>82</v>
+      </c>
+      <c r="B96" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>161</v>
+      <c r="A97" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="5">
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>163</v>
+        <v>84</v>
+      </c>
+      <c r="B98" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>167</v>
+        <v>86</v>
+      </c>
+      <c r="B99" s="5">
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="B100" s="13">
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>171</v>
+        <v>88</v>
+      </c>
+      <c r="B101" s="13">
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>121</v>
+        <v>89</v>
+      </c>
+      <c r="B102" s="13">
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B103" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>176</v>
+        <v>91</v>
+      </c>
+      <c r="B104" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
+      </c>
+      <c r="B105" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B106" s="9" t="s">
         <v>93</v>
+      </c>
+      <c r="B106" s="13">
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>182</v>
+        <v>95</v>
+      </c>
+      <c r="B107" s="13">
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="B108" s="13">
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="B109" s="13">
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>27</v>
+        <v>99</v>
+      </c>
+      <c r="B110" s="13">
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="B111" s="13">
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="B112" s="13">
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>29</v>
+      <c r="A113" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="15">
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>23</v>
+      <c r="A114" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="18">
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="19"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B116" s="6">
+      <c r="A116" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" s="18">
         <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="B119" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="B120" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
+      </c>
+      <c r="B121" s="14">
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
+      </c>
+      <c r="B122" s="14">
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
+      </c>
+      <c r="B123" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
+      </c>
+      <c r="B124" s="14">
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>19</v>
+        <v>108</v>
+      </c>
+      <c r="B125" s="13">
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="B126" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>9</v>
+        <v>110</v>
+      </c>
+      <c r="B127" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>19</v>
+        <v>111</v>
+      </c>
+      <c r="B128" s="16">
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="B129" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="B130" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>47</v>
+        <v>114</v>
+      </c>
+      <c r="B131" s="13">
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>51</v>
+        <v>115</v>
+      </c>
+      <c r="B132" s="13">
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="B133" s="13">
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="B134" s="13">
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>107</v>
+        <v>118</v>
+      </c>
+      <c r="B135" s="13">
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>7</v>
+        <v>119</v>
+      </c>
+      <c r="B136" s="13">
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>19</v>
+        <v>120</v>
+      </c>
+      <c r="B137" s="13">
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
+      </c>
+      <c r="B138" s="14">
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="B139" s="13">
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="B140" s="14">
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>23</v>
+        <v>124</v>
+      </c>
+      <c r="B141" s="13">
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>51</v>
+      <c r="A142" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="18">
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="19"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>7</v>
+      <c r="A144" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="18">
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="19"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>19</v>
+      <c r="A146" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="18">
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="19"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B148" s="6">
+      <c r="A148" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="18"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B150" s="5" t="s">
+      <c r="A150" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="17"/>
+      <c r="B151" s="19"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>173</v>
+      <c r="B152" s="18">
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
-      <c r="B153" s="5"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="19"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>177</v>
+      <c r="A154" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="18">
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="5"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="19"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>29</v>
+        <v>94</v>
+      </c>
+      <c r="B156" s="14">
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B158" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+      <c r="B159" s="19"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B160" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="24"/>
+      <c r="B161" s="19"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="24"/>
+      <c r="B162" s="19"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="25"/>
+      <c r="B164" s="26"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="17"/>
+      <c r="B166" s="19"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="17"/>
+      <c r="B168" s="19"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="17"/>
+      <c r="B169" s="19"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="17"/>
+      <c r="B171" s="19"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="17"/>
+      <c r="B172" s="19"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="17"/>
+      <c r="B173" s="19"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="17"/>
+      <c r="B175" s="19"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" s="27">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="17"/>
+      <c r="B179" s="19"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="17"/>
+      <c r="B180" s="19"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="17"/>
+      <c r="B182" s="19"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="17"/>
+      <c r="B184" s="19"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" s="18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="19"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="5"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="5"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B163" s="16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="B164" s="16"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="5"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="5"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="B175" s="5"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="B179" s="5"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="5"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="5"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="5"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="B186" s="5"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>211</v>
+      <c r="B187" s="18">
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="5"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="19"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>177</v>
+      <c r="A189" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" s="18">
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="5"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="19"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>216</v>
+      <c r="A191" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B191" s="18">
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="5"/>
+      <c r="A192" s="23"/>
+      <c r="B192" s="19"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>19</v>
+      <c r="A193" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" s="18">
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="B194" s="5"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="19"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>23</v>
+      <c r="A195" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B195" s="18">
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-      <c r="B196" s="5"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="19"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>182</v>
+      <c r="A197" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B197" s="28">
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="B198" s="17"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="29"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-      <c r="B199" s="17"/>
+      <c r="A199" s="17"/>
+      <c r="B199" s="29"/>
     </row>
     <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>29</v>
+      <c r="A200" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B200" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="B201" s="14">
+        <v>85</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
+      </c>
+      <c r="B202" s="14">
+        <v>105</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B203" s="19" t="s">
+      <c r="A203" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>49</v>
+      <c r="A204" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B204" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>77</v>
+      <c r="A205" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B205" s="5">
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>202</v>
+        <v>131</v>
+      </c>
+      <c r="B206" s="14">
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>225</v>
+      <c r="A207" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B207" s="5">
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>19</v>
+      <c r="A208" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B208" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>182</v>
+      <c r="A209" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B209" s="5">
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B210" s="19" t="s">
+      <c r="A210" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>225</v>
+      <c r="A211" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B211" s="5">
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
+      </c>
+      <c r="B212" s="14">
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
+      </c>
+      <c r="B213" s="14">
+        <v>85</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>233</v>
+        <v>139</v>
+      </c>
+      <c r="B214" s="14">
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>93</v>
+      <c r="A215" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B215" s="8">
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>236</v>
+      <c r="A216" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B216" s="5">
+        <v>390</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B217" s="21" t="s">
+      <c r="A217" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B217" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>47</v>
+        <v>143</v>
+      </c>
+      <c r="B218" s="14">
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
+      </c>
+      <c r="B219" s="14">
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A220" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>241</v>
+      <c r="A220" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B220" s="5">
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>49</v>
+      <c r="A221" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B221" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B222" s="19" t="s">
+      <c r="A222" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>245</v>
+      <c r="A223" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B223" s="5">
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>247</v>
+      <c r="A224" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B224" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>249</v>
+      <c r="A225" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B225" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B226" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B226" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6969,15 +6687,15 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
